--- a/Project2/map/map_stage2.xlsx
+++ b/Project2/map/map_stage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Project2\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECA946F-DEF3-40DD-8529-3A0E20EDB7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502C0DD7-619C-4BB7-9DD3-838B13BD0A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="18000" windowHeight="9810" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,38 +75,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -172,240 +141,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="4"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -796,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174F57D-9AE7-43AF-99BF-E0807E6314AC}">
   <dimension ref="A1:AN300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="35" workbookViewId="0">
-      <selection activeCell="BI233" sqref="BI233"/>
+    <sheetView tabSelected="1" zoomScale="35" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="21" customHeight="1"/>
@@ -6815,10 +6550,10 @@
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="1">
         <v>0</v>
@@ -9035,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="1">
         <v>0</v>
@@ -10862,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" s="1">
         <v>1</v>
@@ -12412,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1">
         <v>1</v>
@@ -15703,7 +15438,7 @@
         <v>44</v>
       </c>
       <c r="F123" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
@@ -15718,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
@@ -15825,7 +15560,7 @@
         <v>45</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="1">
         <v>0</v>
@@ -15840,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="1">
         <v>0</v>
@@ -15950,19 +15685,19 @@
         <v>1</v>
       </c>
       <c r="G125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -18533,16 +18268,16 @@
         <v>0</v>
       </c>
       <c r="N146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q146" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R146" s="1">
         <v>0</v>
@@ -19274,10 +19009,10 @@
         <v>0</v>
       </c>
       <c r="Q152" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R152" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S152" s="1">
         <v>0</v>
@@ -28903,10 +28638,10 @@
         <v>0</v>
       </c>
       <c r="N231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O231" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P231" s="1">
         <v>0</v>
@@ -29016,16 +28751,16 @@
         <v>0</v>
       </c>
       <c r="K232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N232" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O232" s="1">
         <v>0</v>
@@ -37409,58 +37144,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN117 AD18:AK240 S27:AF264 K30:K124 B61:V119 D118:AN123 A118:A124 C119:C123 B119:B124 C124:AN124 A125:AN300">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:AN300">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
       <formula>51</formula>
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="between">
       <formula>51</formula>
       <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="between">
       <formula>26</formula>
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>60</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K227:P227">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V227:AA227">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG142:AJ142">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK109">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Project2/map/map_stage2.xlsx
+++ b/Project2/map/map_stage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JumpKing\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C873B15F-63B8-4CC9-A1A3-60CFDFFCEBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4721E-670A-4664-A2BC-BFBF5BF71914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9810" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174F57D-9AE7-43AF-99BF-E0807E6314AC}">
   <dimension ref="A1:AN300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
       <selection activeCell="AN300" sqref="A1:AN300"/>
     </sheetView>
   </sheetViews>
@@ -6166,7 +6166,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -37143,7 +37143,7 @@
       <formula>A1048563=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AN117 A14:A263 AN14:AN264 AD18:AK240 S27:AF264 K30:K124 B61:V119 D118:AN123 C119:C123 B119:B125 C124:AN125 A126:AN300 B120:E124">
+  <conditionalFormatting sqref="A1:AN117 A14:A263 AN14:AN264 AD18:AK240 S27:AF264 K30:K124 B61:V119 D118:AN123 C119:C123 B119:B125 B120:E124 C124:AN125 A126:AN300">
     <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>50</formula>
     </cfRule>

--- a/Project2/map/map_stage2.xlsx
+++ b/Project2/map/map_stage2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JumpKing\Project2\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D4721E-670A-4664-A2BC-BFBF5BF71914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D2AED8-B47B-4E30-8D5A-A430BEC472A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48E8A6F0-D45C-499F-B0E9-10C3D3B96F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174F57D-9AE7-43AF-99BF-E0807E6314AC}">
   <dimension ref="A1:AN300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
       <selection activeCell="AN300" sqref="A1:AN300"/>
     </sheetView>
   </sheetViews>
@@ -21321,7 +21321,7 @@
         <v>0</v>
       </c>
       <c r="O171" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P171" s="1">
         <v>2</v>
